--- a/Reference/onenotecontrols-2016.xlsx
+++ b/Reference/onenotecontrols-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\OneMore\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97969DC1-F2B9-4DAE-B819-CD4355A8C047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A360874-B35E-4317-B3D9-20C7EF95D7EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="80" windowWidth="25330" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A955" workbookViewId="0">
-      <selection activeCell="A956" sqref="A956"/>
+    <sheetView tabSelected="1" topLeftCell="A1024" workbookViewId="0">
+      <selection activeCell="A1044" sqref="A1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Reference/onenotecontrols-2016.xlsx
+++ b/Reference/onenotecontrols-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\OneMore\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A360874-B35E-4317-B3D9-20C7EF95D7EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DB83A3-890E-44E2-85FF-AB378807082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="80" windowWidth="25330" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1024" workbookViewId="0">
-      <selection activeCell="A1044" sqref="A1044"/>
+    <sheetView tabSelected="1" topLeftCell="A1120" workbookViewId="0">
+      <selection activeCell="A1141" sqref="A1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16787,7 +16787,7 @@
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A689" t="s">
+      <c r="A689" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B689" t="s">
@@ -17303,7 +17303,7 @@
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A713" t="s">
+      <c r="A713" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B713" t="s">
@@ -19798,7 +19798,7 @@
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A828" t="s">
+      <c r="A828" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B828" t="s">
@@ -19835,7 +19835,7 @@
       </c>
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A830" t="s">
+      <c r="A830" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B830" t="s">
@@ -19892,7 +19892,7 @@
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A833" t="s">
+      <c r="A833" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B833" t="s">
@@ -19989,7 +19989,7 @@
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A838" t="s">
+      <c r="A838" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B838" t="s">
@@ -20628,7 +20628,7 @@
       </c>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A868" t="s">
+      <c r="A868" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B868" t="s">
@@ -21716,7 +21716,7 @@
       </c>
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A920" t="s">
+      <c r="A920" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B920" t="s">
@@ -22093,7 +22093,7 @@
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A939" t="s">
+      <c r="A939" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B939" t="s">
@@ -22230,7 +22230,7 @@
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A946" t="s">
+      <c r="A946" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B946" t="s">
@@ -23926,7 +23926,7 @@
       </c>
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1029" t="s">
+      <c r="A1029" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B1029" t="s">
@@ -24043,7 +24043,7 @@
       </c>
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1035" t="s">
+      <c r="A1035" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B1035" t="s">
@@ -26212,7 +26212,7 @@
       </c>
     </row>
     <row r="1143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1143" t="s">
+      <c r="A1143" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B1143" t="s">
